--- a/test_output/financial_projection_korean_adult_education_20251104.xlsx
+++ b/test_output/financial_projection_korean_adult_education_20251104.xlsx
@@ -30,6 +30,30 @@
     <definedName name="GAPercent">'Assumptions'!$B$18</definedName>
     <definedName name="TaxRate">'Assumptions'!$B$21</definedName>
     <definedName name="DiscountRate">'Assumptions'!$B$22</definedName>
+    <definedName name="Rev_Segment1_Y0">'Revenue_Buildup'!$B$5</definedName>
+    <definedName name="Rev_Segment2_Y0">'Revenue_Buildup'!$B$6</definedName>
+    <definedName name="Rev_Segment3_Y0">'Revenue_Buildup'!$B$7</definedName>
+    <definedName name="Rev_Segment4_Y0">'Revenue_Buildup'!$B$8</definedName>
+    <definedName name="Rev_Segment1_Y1">'Revenue_Buildup'!$C$5</definedName>
+    <definedName name="Rev_Segment2_Y1">'Revenue_Buildup'!$C$6</definedName>
+    <definedName name="Rev_Segment3_Y1">'Revenue_Buildup'!$C$7</definedName>
+    <definedName name="Rev_Segment4_Y1">'Revenue_Buildup'!$C$8</definedName>
+    <definedName name="Rev_Segment1_Y2">'Revenue_Buildup'!$D$5</definedName>
+    <definedName name="Rev_Segment2_Y2">'Revenue_Buildup'!$D$6</definedName>
+    <definedName name="Rev_Segment3_Y2">'Revenue_Buildup'!$D$7</definedName>
+    <definedName name="Rev_Segment4_Y2">'Revenue_Buildup'!$D$8</definedName>
+    <definedName name="Rev_Segment1_Y3">'Revenue_Buildup'!$E$5</definedName>
+    <definedName name="Rev_Segment2_Y3">'Revenue_Buildup'!$E$6</definedName>
+    <definedName name="Rev_Segment3_Y3">'Revenue_Buildup'!$E$7</definedName>
+    <definedName name="Rev_Segment4_Y3">'Revenue_Buildup'!$E$8</definedName>
+    <definedName name="Rev_Segment1_Y4">'Revenue_Buildup'!$F$5</definedName>
+    <definedName name="Rev_Segment2_Y4">'Revenue_Buildup'!$F$6</definedName>
+    <definedName name="Rev_Segment3_Y4">'Revenue_Buildup'!$F$7</definedName>
+    <definedName name="Rev_Segment4_Y4">'Revenue_Buildup'!$F$8</definedName>
+    <definedName name="Rev_Segment1_Y5">'Revenue_Buildup'!$G$5</definedName>
+    <definedName name="Rev_Segment2_Y5">'Revenue_Buildup'!$G$6</definedName>
+    <definedName name="Rev_Segment3_Y5">'Revenue_Buildup'!$G$7</definedName>
+    <definedName name="Rev_Segment4_Y5">'Revenue_Buildup'!$G$8</definedName>
     <definedName name="Revenue_Y0">'Revenue_Buildup'!$B$9</definedName>
     <definedName name="Revenue_Y1">'Revenue_Buildup'!$C$9</definedName>
     <definedName name="Revenue_Y2">'Revenue_Buildup'!$D$9</definedName>
@@ -42,6 +66,24 @@
     <definedName name="COGS_Y3">'Cost_Structure'!$F$6</definedName>
     <definedName name="COGS_Y4">'Cost_Structure'!$G$6</definedName>
     <definedName name="COGS_Y5">'Cost_Structure'!$H$6</definedName>
+    <definedName name="OPEX_SM_Y0">'Cost_Structure'!$B$10</definedName>
+    <definedName name="OPEX_RD_Y0">'Cost_Structure'!$B$11</definedName>
+    <definedName name="OPEX_GA_Y0">'Cost_Structure'!$B$12</definedName>
+    <definedName name="OPEX_SM_Y1">'Cost_Structure'!$C$10</definedName>
+    <definedName name="OPEX_RD_Y1">'Cost_Structure'!$C$11</definedName>
+    <definedName name="OPEX_GA_Y1">'Cost_Structure'!$C$12</definedName>
+    <definedName name="OPEX_SM_Y2">'Cost_Structure'!$D$10</definedName>
+    <definedName name="OPEX_RD_Y2">'Cost_Structure'!$D$11</definedName>
+    <definedName name="OPEX_GA_Y2">'Cost_Structure'!$D$12</definedName>
+    <definedName name="OPEX_SM_Y3">'Cost_Structure'!$E$10</definedName>
+    <definedName name="OPEX_RD_Y3">'Cost_Structure'!$E$11</definedName>
+    <definedName name="OPEX_GA_Y3">'Cost_Structure'!$E$12</definedName>
+    <definedName name="OPEX_SM_Y4">'Cost_Structure'!$F$10</definedName>
+    <definedName name="OPEX_RD_Y4">'Cost_Structure'!$F$11</definedName>
+    <definedName name="OPEX_GA_Y4">'Cost_Structure'!$F$12</definedName>
+    <definedName name="OPEX_SM_Y5">'Cost_Structure'!$G$10</definedName>
+    <definedName name="OPEX_RD_Y5">'Cost_Structure'!$G$11</definedName>
+    <definedName name="OPEX_GA_Y5">'Cost_Structure'!$G$12</definedName>
     <definedName name="OPEX_Y0">'Cost_Structure'!$B$13</definedName>
     <definedName name="OPEX_Y1">'Cost_Structure'!$C$13</definedName>
     <definedName name="OPEX_Y2">'Cost_Structure'!$D$13</definedName>
@@ -66,6 +108,11 @@
     <definedName name="NetIncome_Y3">'PL_5Year'!$E$21</definedName>
     <definedName name="NetIncome_Y4">'PL_5Year'!$F$21</definedName>
     <definedName name="NetIncome_Y5">'PL_5Year'!$G$21</definedName>
+    <definedName name="DCF_PV_Y1">'DCF_Valuation'!$C$9</definedName>
+    <definedName name="DCF_PV_Y2">'DCF_Valuation'!$C$10</definedName>
+    <definedName name="DCF_PV_Y3">'DCF_Valuation'!$C$11</definedName>
+    <definedName name="DCF_PV_Y4">'DCF_Valuation'!$C$12</definedName>
+    <definedName name="DCF_PV_Y5">'DCF_Valuation'!$C$13</definedName>
   </definedNames>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
 </workbook>
@@ -1412,7 +1459,7 @@
         </is>
       </c>
       <c r="C14" s="47">
-        <f>SUM(C9:C13)</f>
+        <f>SUM(DCF_PV_Y1,DCF_PV_Y2,DCF_PV_Y3,DCF_PV_Y4,DCF_PV_Y5)</f>
         <v/>
       </c>
     </row>
@@ -1463,7 +1510,7 @@
         </is>
       </c>
       <c r="B21" s="48">
-        <f>C15+B19</f>
+        <f>C14+B19</f>
         <v/>
       </c>
       <c r="C21" t="inlineStr">
@@ -1955,7 +2002,11 @@
         <f>E5*(1+$H$5)</f>
         <v/>
       </c>
-      <c r="G5" s="19" t="n">
+      <c r="G5" s="8">
+        <f>F5*(1+$H$5)</f>
+        <v/>
+      </c>
+      <c r="H5" s="19" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1984,7 +2035,11 @@
         <f>E6*(1+$H$6)</f>
         <v/>
       </c>
-      <c r="G6" s="19" t="n">
+      <c r="G6" s="8">
+        <f>F6*(1+$H$6)</f>
+        <v/>
+      </c>
+      <c r="H6" s="19" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -2013,7 +2068,11 @@
         <f>E7*(1+$H$7)</f>
         <v/>
       </c>
-      <c r="G7" s="19" t="n">
+      <c r="G7" s="8">
+        <f>F7*(1+$H$7)</f>
+        <v/>
+      </c>
+      <c r="H7" s="19" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -2042,7 +2101,11 @@
         <f>E8*(1+$H$8)</f>
         <v/>
       </c>
-      <c r="G8" s="19" t="n">
+      <c r="G8" s="8">
+        <f>F8*(1+$H$8)</f>
+        <v/>
+      </c>
+      <c r="H8" s="19" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -2053,27 +2116,27 @@
         </is>
       </c>
       <c r="B9" s="23">
-        <f>SUM(B5:B8)</f>
+        <f>SUM(Rev_Segment1_Y0,Rev_Segment2_Y0,Rev_Segment3_Y0,Rev_Segment4_Y0)</f>
         <v/>
       </c>
       <c r="C9" s="23">
-        <f>SUM(C5:C8)</f>
+        <f>SUM(Rev_Segment1_Y1,Rev_Segment2_Y1,Rev_Segment3_Y1,Rev_Segment4_Y1)</f>
         <v/>
       </c>
       <c r="D9" s="23">
-        <f>SUM(D5:D8)</f>
+        <f>SUM(Rev_Segment1_Y2,Rev_Segment2_Y2,Rev_Segment3_Y2,Rev_Segment4_Y2)</f>
         <v/>
       </c>
       <c r="E9" s="23">
-        <f>SUM(E5:E8)</f>
+        <f>SUM(Rev_Segment1_Y3,Rev_Segment2_Y3,Rev_Segment3_Y3,Rev_Segment4_Y3)</f>
         <v/>
       </c>
       <c r="F9" s="23">
-        <f>SUM(F5:F8)</f>
+        <f>SUM(Rev_Segment1_Y4,Rev_Segment2_Y4,Rev_Segment3_Y4,Rev_Segment4_Y4)</f>
         <v/>
       </c>
       <c r="G9" s="23">
-        <f>SUM(G5:G8)</f>
+        <f>SUM(Rev_Segment1_Y5,Rev_Segment2_Y5,Rev_Segment3_Y5,Rev_Segment4_Y5)</f>
         <v/>
       </c>
     </row>
@@ -2444,27 +2507,27 @@
         </is>
       </c>
       <c r="B13" s="28">
-        <f>SUM(B10:B12)</f>
+        <f>SUM(OPEX_SM_Y0,OPEX_RD_Y0,OPEX_GA_Y0)</f>
         <v/>
       </c>
       <c r="C13" s="28">
-        <f>SUM(C10:C12)</f>
+        <f>SUM(OPEX_SM_Y1,OPEX_RD_Y1,OPEX_GA_Y1)</f>
         <v/>
       </c>
       <c r="D13" s="28">
-        <f>SUM(D10:D12)</f>
+        <f>SUM(OPEX_SM_Y2,OPEX_RD_Y2,OPEX_GA_Y2)</f>
         <v/>
       </c>
       <c r="E13" s="28">
-        <f>SUM(E10:E12)</f>
+        <f>SUM(OPEX_SM_Y3,OPEX_RD_Y3,OPEX_GA_Y3)</f>
         <v/>
       </c>
       <c r="F13" s="28">
-        <f>SUM(F10:F12)</f>
+        <f>SUM(OPEX_SM_Y4,OPEX_RD_Y4,OPEX_GA_Y4)</f>
         <v/>
       </c>
       <c r="G13" s="28">
-        <f>SUM(G10:G12)</f>
+        <f>SUM(OPEX_SM_Y5,OPEX_RD_Y5,OPEX_GA_Y5)</f>
         <v/>
       </c>
       <c r="H13" s="9">
